--- a/www.eia.gov/electricity/monthly/xls/table_1_08_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_08_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>Table 1.8.A. Utility Scale Facility Net Generation from Other Gases</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1658,13 +1658,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C14" s="10">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="11">
-        <v>-0.158</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L14" s="10">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="13">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C17" s="13">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>0.246</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1799,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L17" s="13">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,25 +1810,25 @@
         <v>29</v>
       </c>
       <c r="B18" s="10">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="C18" s="10">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="D18" s="11">
-        <v>4.2000000000000003E-2</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="E18" s="10">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F18" s="10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="H18" s="10">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>165</v>
       </c>
       <c r="L18" s="10">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>25</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>25</v>
       </c>
       <c r="L19" s="13">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,16 +1886,16 @@
         <v>31</v>
       </c>
       <c r="B20" s="13">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" s="13">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D20" s="14">
-        <v>-0.19700000000000001</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
+        <v>-0.123</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="13">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L20" s="13">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1924,25 +1924,25 @@
         <v>32</v>
       </c>
       <c r="B21" s="13">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="C21" s="13">
-        <v>11</v>
-      </c>
-      <c r="D21" s="14">
-        <v>7.8689999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E21" s="13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F21" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G21" s="13">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="H21" s="13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="13">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>25</v>
@@ -1980,7 +1980,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="13">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>25</v>
       </c>
       <c r="L22" s="13">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2342,13 +2342,13 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="10">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D32" s="11">
-        <v>0.71599999999999997</v>
+        <v>-0.25700000000000001</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L32" s="10">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,13 +2380,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="13">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D33" s="14">
-        <v>0.877</v>
+        <v>-0.26300000000000001</v>
       </c>
       <c r="E33" s="13">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L33" s="13">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2456,13 +2456,13 @@
         <v>46</v>
       </c>
       <c r="B35" s="13">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="C35" s="13">
         <v>1</v>
       </c>
       <c r="D35" s="14">
-        <v>-0.28699999999999998</v>
+        <v>-0.63</v>
       </c>
       <c r="E35" s="13">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="13">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="L35" s="13">
         <v>1</v>
@@ -2684,13 +2684,13 @@
         <v>52</v>
       </c>
       <c r="B41" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="14">
-        <v>0.23400000000000001</v>
+        <v>-0.111</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -2711,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>25</v>
       </c>
       <c r="C42" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>25</v>
@@ -2752,7 +2752,7 @@
         <v>25</v>
       </c>
       <c r="L42" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2763,7 +2763,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="13">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>25</v>
@@ -2790,7 +2790,7 @@
         <v>25</v>
       </c>
       <c r="L43" s="13">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2877,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="14">
-        <v>-4.2999999999999997E-2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2912,13 +2912,13 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="C47" s="10">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D47" s="11">
-        <v>-0.107</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E47" s="10">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="10">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="H47" s="10">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="10">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L47" s="10">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,13 +2988,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C49" s="13">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.122</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L49" s="13">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,13 +3064,13 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="C51" s="13">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="D51" s="14">
-        <v>-9.4E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="H51" s="13">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>103</v>
       </c>
       <c r="L51" s="13">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,13 +3102,13 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C52" s="10">
         <v>40</v>
       </c>
       <c r="D52" s="11">
-        <v>-9.7000000000000003E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="E52" s="10">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="10">
         <v>2</v>
@@ -3254,25 +3254,25 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="13">
+        <v>2</v>
+      </c>
+      <c r="D56" s="14">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
         <v>1</v>
       </c>
-      <c r="D56" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E56" s="13">
-        <v>0</v>
-      </c>
-      <c r="F56" s="13">
-        <v>0</v>
-      </c>
-      <c r="G56" s="13">
-        <v>0</v>
-      </c>
       <c r="H56" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="13">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="D57" s="14">
         <v>-1</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="13">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>71</v>
       </c>
       <c r="B60" s="13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="13">
         <v>37</v>
       </c>
       <c r="D60" s="14">
-        <v>-3.6999999999999998E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E60" s="13">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L60" s="13">
         <v>37</v>
@@ -3444,13 +3444,13 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C61" s="10">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D61" s="11">
-        <v>0.107</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="E61" s="10">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="10">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H61" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I61" s="10">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="10">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L61" s="10">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,13 +3482,13 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C62" s="13">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D62" s="14">
-        <v>0.14199999999999999</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E62" s="13">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="13">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L62" s="13">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3558,13 +3558,13 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C64" s="13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D64" s="14">
-        <v>8.0000000000000002E-3</v>
+        <v>-0.253</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
@@ -3573,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="13">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H64" s="13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3710,25 +3710,25 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>891</v>
+        <v>1001</v>
       </c>
       <c r="C68" s="10">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D68" s="11">
-        <v>-1.7000000000000001E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E68" s="10">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F68" s="10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G68" s="10">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="H68" s="10">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="I68" s="10">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="K68" s="10">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L68" s="10">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
